--- a/data/trans_camb/P7A_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P7A_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,6 +529,12 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -546,22 +552,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +595,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M5/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -642,6 +684,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +704,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,03</t>
+          <t>2,35</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,48</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,26</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,62</t>
+          <t>4,43</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-2,42</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-2,62</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-1,08</t>
+          <t>-2,56</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,08</t>
+          <t>-2,97</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>-0,54</t>
+          <t>5,11</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>-1,48</t>
+          <t>-6,35</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>1,13</t>
+          <t>-0,16</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>1,37</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-0,61</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>-1,71</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>4,8</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>-3,13</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>0,54</t>
         </is>
       </c>
     </row>
@@ -724,62 +802,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 7,33</t>
+          <t>-3,36; 7,75</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 7,04</t>
+          <t>-4,08; 6,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,15; 5,53</t>
+          <t>-6,47; 4,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 8,77</t>
+          <t>-1,62; 10,68</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,11; 5,13</t>
+          <t>-5,9; 6,98</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-7,54; 2,49</t>
+          <t>-4,3; 6,83</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-7,72; 3,91</t>
+          <t>-4,54; 5,52</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-5,94; 4,12</t>
+          <t>-7,6; 2,16</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 5,25</t>
+          <t>-8,27; 2,35</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-4,35; 3,54</t>
+          <t>-0,11; 10,67</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>-5,45; 3,02</t>
+          <t>-11,74; -1,06</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 4,99</t>
+          <t>-5,42; 5,14</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-2,35; 5,39</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-4,46; 2,94</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-5,24; 2,22</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>-0,34; 8,72</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>-7,8; 1,07</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>-3,28; 4,0</t>
         </is>
       </c>
     </row>
@@ -792,62 +900,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,97%</t>
+          <t>6,9%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,35%</t>
+          <t>4,39%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,77%</t>
+          <t>-1,07%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>10,61%</t>
+          <t>13,01%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,44%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-5,87%</t>
+          <t>3,35%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-6,36%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-2,61%</t>
+          <t>-6,21%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>2,86%</t>
+          <t>-7,22%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>-1,43%</t>
+          <t>12,4%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>-3,91%</t>
+          <t>-13,71%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>3,0%</t>
+          <t>-0,41%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>3,64%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-1,61%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>-4,53%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>12,7%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>-7,35%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>1,38%</t>
         </is>
       </c>
     </row>
@@ -860,62 +998,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-10,17; 24,0</t>
+          <t>-9,13; 24,4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-9,63; 22,62</t>
+          <t>-11,08; 21,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-14,07; 17,66</t>
+          <t>-17,43; 15,41</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 28,26</t>
+          <t>-4,54; 33,85</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-11,8; 13,12</t>
+          <t>-14,22; 21,13</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-16,93; 6,48</t>
+          <t>-10,49; 19,59</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-17,91; 10,41</t>
+          <t>-10,43; 14,34</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-13,82; 10,68</t>
+          <t>-17,54; 5,71</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-7,33; 14,58</t>
+          <t>-18,91; 6,15</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-11,1; 9,76</t>
+          <t>-0,26; 27,99</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>-13,79; 8,23</t>
+          <t>-23,99; -2,71</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>-5,99; 13,98</t>
+          <t>-12,63; 13,81</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-5,96; 15,23</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-11,16; 7,96</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-13,23; 6,17</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>-0,93; 23,83</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>-17,02; 2,73</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>-8,09; 10,8</t>
         </is>
       </c>
     </row>
@@ -932,62 +1100,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-4,39</t>
+          <t>-3,85</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-3,35</t>
+          <t>-3,53</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-3,13</t>
+          <t>-3,25</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-3,56</t>
+          <t>3,66</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,52</t>
+          <t>-12,35</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-2,91</t>
+          <t>-5,12</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-1,59</t>
+          <t>-2,32</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-1,58</t>
+          <t>-2,71</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-2,94</t>
+          <t>-1,1</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>-3,13</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>-2,36</t>
+          <t>1,43</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>-2,62</t>
+          <t>3,49</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-3,08</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>-3,12</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>-2,18</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>2,07</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>-5,72</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>-1,03</t>
         </is>
       </c>
     </row>
@@ -1000,62 +1198,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,49; 2,96</t>
+          <t>-10,22; 3,11</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,57; 2,55</t>
+          <t>-9,98; 2,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,8; 2,74</t>
+          <t>-10,23; 2,83</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-10,69; 4,19</t>
+          <t>-3,47; 10,81</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,97; 4,71</t>
+          <t>-19,97; -4,94</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,17; 2,62</t>
+          <t>-13,83; 3,37</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-7,09; 4,22</t>
+          <t>-8,3; 3,32</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-9,72; 6,88</t>
+          <t>-8,22; 3,1</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-7,43; 1,81</t>
+          <t>-7,06; 5,18</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-7,86; 0,79</t>
+          <t>-5,85; 6,72</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>-6,65; 1,69</t>
+          <t>-6,34; 9,7</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>-8,07; 2,51</t>
+          <t>-5,94; 12,6</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-7,54; 1,24</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-7,67; 0,61</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-6,47; 2,06</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>-2,71; 6,79</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>-11,28; -0,47</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>-7,48; 5,27</t>
         </is>
       </c>
     </row>
@@ -1068,62 +1296,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-12,37%</t>
+          <t>-10,85%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-9,43%</t>
+          <t>-9,95%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-8,8%</t>
+          <t>-9,15%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-10,01%</t>
+          <t>10,31%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-4,25%</t>
+          <t>-31,53%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-8,16%</t>
+          <t>-16,04%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-4,47%</t>
+          <t>-6,5%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-4,43%</t>
+          <t>-7,6%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-8,28%</t>
+          <t>-3,08%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>-8,8%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>-6,64%</t>
+          <t>3,95%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>-7,36%</t>
+          <t>10,26%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-8,66%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>-8,78%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>-6,12%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>5,81%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>-15,19%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>-3,12%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1394,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-27,72; 8,79</t>
+          <t>-26,89; 9,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-24,86; 7,6</t>
+          <t>-25,62; 7,53</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-25,26; 8,76</t>
+          <t>-25,43; 9,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-28,69; 12,75</t>
+          <t>-8,7; 33,97</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-18,26; 14,69</t>
+          <t>-47,27; -13,52</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-21,45; 8,2</t>
+          <t>-37,68; 13,28</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-18,24; 13,06</t>
+          <t>-22,1; 9,92</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-25,8; 20,38</t>
+          <t>-21,71; 9,64</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-20,11; 5,7</t>
+          <t>-18,57; 15,96</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-20,65; 2,41</t>
+          <t>-15,21; 19,98</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>-17,73; 5,11</t>
+          <t>-16,75; 29,4</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>-21,74; 7,23</t>
+          <t>-15,56; 43,34</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-20,0; 3,92</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-20,2; 1,94</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-17,4; 6,04</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>-7,53; 19,93</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>-28,35; -1,1</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>-20,99; 17,63</t>
         </is>
       </c>
     </row>
@@ -1208,60 +1496,90 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,32</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,43</t>
+          <t>1,68</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>7,72</t>
+          <t>8,39</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>4,87</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>4,53</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>6,51</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
+          <t>0,53</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0,49</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>7,93</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>3,41</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>0,86</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>3,94</t>
-        </is>
-      </c>
       <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>3,54</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>1,11</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>4,49</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>6,39</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -1276,60 +1594,90 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-11,18; 16,34</t>
+          <t>-12,73; 13,04</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-11,91; 13,96</t>
+          <t>-11,62; 13,89</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 20,12</t>
+          <t>-5,12; 21,5</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>-10,31; 19,0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-7,97; 14,93</t>
-        </is>
-      </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-10,42; 10,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-10,31; 10,94</t>
+          <t>-5,55; 18,3</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
+          <t>-10,84; 10,42</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-10,44; 10,25</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-3,61; 20,21</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-5,67; 12,5</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-7,07; 9,25</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>-4,88; 12,28</t>
-        </is>
-      </c>
       <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-5,14; 12,39</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-7,22; 9,12</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-4,07; 12,85</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>-3,73; 15,6</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1344,60 +1692,90 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>6,16%</t>
+          <t>1,73%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>3,79%</t>
+          <t>4,46%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>20,5%</t>
+          <t>22,29%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>12,94%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>11,0%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,17%</t>
+          <t>15,82%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
+          <t>1,29%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1,18%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>19,25%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>8,65%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>2,18%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>10,01%</t>
-        </is>
-      </c>
       <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>9,0%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>2,82%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>11,4%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>16,23%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1412,60 +1790,90 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-25,51; 53,62</t>
+          <t>-29,2; 42,8</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-26,46; 45,82</t>
+          <t>-26,39; 46,91</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-13,24; 65,53</t>
+          <t>-11,27; 73,83</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>-24,2; 59,93</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-17,16; 40,94</t>
-        </is>
-      </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-22,97; 28,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-22,5; 30,17</t>
+          <t>-12,0; 50,15</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
+          <t>-23,1; 29,78</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-22,6; 30,07</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-7,31; 58,11</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>-12,96; 34,31</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>-15,83; 26,4</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>-10,71; 35,56</t>
-        </is>
-      </c>
       <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-12,29; 35,66</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-16,52; 26,01</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-9,35; 37,68</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>-8,47; 46,14</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1484,62 +1892,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>-0,34</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
           <t>-0,5</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-0,46</t>
-        </is>
-      </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,43</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,22</t>
+          <t>4,17</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>-3,28</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-2,24</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-1,87</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-0,22</t>
+          <t>-2,21</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-0,21</t>
+          <t>-1,82</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
+          <t>3,68</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-3,28</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0,62</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-0,1</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
           <t>-1,37</t>
         </is>
       </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>-1,17</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>0,46</t>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>-1,15</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>3,92</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>-3,32</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>0,15</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1990,92 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 3,56</t>
+          <t>-4,51; 4,21</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 3,74</t>
+          <t>-4,49; 3,17</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 3,97</t>
+          <t>-4,54; 3,28</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 5,38</t>
+          <t>-0,35; 8,45</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 3,63</t>
+          <t>-7,56; 1,86</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,81; 1,33</t>
+          <t>-5,34; 4,11</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-5,32; 1,75</t>
+          <t>-3,43; 3,9</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 3,71</t>
+          <t>-5,32; 1,52</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 2,48</t>
+          <t>-5,4; 1,73</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 1,2</t>
+          <t>-0,36; 7,6</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>-4,06; 1,57</t>
+          <t>-7,37; 1,31</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 3,48</t>
+          <t>-3,79; 5,1</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-2,91; 2,64</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-3,97; 1,5</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-3,62; 1,58</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>0,67; 7,12</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>-6,86; -0,4</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>-3,3; 3,45</t>
         </is>
       </c>
     </row>
@@ -1620,62 +2088,92 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>-0,96%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
           <t>-1,42%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>-1,32%</t>
-        </is>
-      </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-1,23%</t>
+          <t>-1,27%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>3,49%</t>
+          <t>11,9%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,15%</t>
+          <t>-8,34%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-5,74%</t>
+          <t>-0,89%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-4,8%</t>
+          <t>0,3%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-0,57%</t>
+          <t>-5,66%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-0,56%</t>
+          <t>-4,65%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
+          <t>9,42%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-7,68%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>1,59%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>-0,27%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
           <t>-3,7%</t>
         </is>
       </c>
-      <c r="M18" s="2" t="inlineStr">
-        <is>
-          <t>-3,15%</t>
-        </is>
-      </c>
-      <c r="N18" s="2" t="inlineStr">
-        <is>
-          <t>1,24%</t>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>-3,09%</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>10,57%</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>-8,09%</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>0,39%</t>
         </is>
       </c>
     </row>
@@ -1688,75 +2186,112 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-13,4; 10,85</t>
+          <t>-12,15; 12,7</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-11,77; 11,49</t>
+          <t>-12,19; 9,58</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-11,61; 12,06</t>
+          <t>-12,21; 10,09</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-8,61; 16,44</t>
+          <t>-0,93; 25,69</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-9,66; 10,04</t>
+          <t>-18,59; 4,75</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-14,3; 3,53</t>
+          <t>-13,7; 12,03</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-13,0; 4,94</t>
+          <t>-8,56; 10,34</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-10,86; 9,93</t>
+          <t>-13,08; 4,38</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-8,46; 6,95</t>
+          <t>-13,39; 4,52</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>-10,87; 3,33</t>
+          <t>-0,91; 20,25</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>-10,51; 4,32</t>
+          <t>-16,38; 3,19</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>-6,1; 9,82</t>
+          <t>-9,2; 13,94</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-7,61; 7,4</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-10,26; 4,21</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-9,63; 4,41</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>1,83; 19,72</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>-16,04; -0,93</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>-8,42; 9,56</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
